--- a/Experiment/Orders_LOC/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_LOC/PAR01_RUN01.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_LOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB55735F-4DCD-4F9C-A9DF-0EF9576D75EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1C35A-2EAC-4C11-8469-5CA696BA5FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -105,30 +105,6 @@
     <t>face5.jpg</t>
   </si>
   <si>
-    <t>scramble_face4.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face5.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face3.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face6.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face2.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face7.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face1.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face8.jpg</t>
-  </si>
-  <si>
     <t>place</t>
   </si>
   <si>
@@ -180,30 +156,6 @@
     <t>place14.jpg</t>
   </si>
   <si>
-    <t>scramble_face12.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face16.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face15.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face10.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face9.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face11.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face14.jpg</t>
-  </si>
-  <si>
-    <t>scramble_face13.jpg</t>
-  </si>
-  <si>
     <t>object15.jpg</t>
   </si>
   <si>
@@ -256,12 +208,60 @@
   </si>
   <si>
     <t>Filename_Right</t>
+  </si>
+  <si>
+    <t>ScrambledPlace5.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace6.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace11.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace14.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace13.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace12.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace16.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace1.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace9.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace15.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace7.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace4.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace3.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace2.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace8.jpg</t>
+  </si>
+  <si>
+    <t>ScrambledPlace10.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="L79" sqref="L79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,10 +591,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -619,16 +619,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F4" t="b">
         <v>0</v>
@@ -659,16 +659,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -679,16 +679,16 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -699,16 +699,16 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F7" t="b">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F8" t="b">
         <v>0</v>
@@ -739,16 +739,16 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F9" t="b">
         <v>0</v>
@@ -759,16 +759,16 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F10" t="b">
         <v>0</v>
@@ -779,16 +779,16 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F11" t="b">
         <v>0</v>
@@ -799,16 +799,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F12" t="b">
         <v>0</v>
@@ -819,16 +819,16 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F13" t="b">
         <v>0</v>
@@ -839,16 +839,16 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F14" t="b">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>32</v>
       </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" t="s">
-        <v>40</v>
-      </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F15" t="b">
         <v>0</v>
@@ -879,16 +879,16 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F16" t="b">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F17" t="b">
         <v>0</v>
@@ -919,16 +919,16 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F18" t="b">
         <v>0</v>
@@ -945,10 +945,10 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F19" t="b">
         <v>0</v>
@@ -965,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F20" t="b">
         <v>0</v>
@@ -985,10 +985,10 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F21" t="b">
         <v>0</v>
@@ -1005,10 +1005,10 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E22" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
@@ -1025,10 +1025,10 @@
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F23" t="b">
         <v>0</v>
@@ -1045,10 +1045,10 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E24" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F24" t="b">
         <v>0</v>
@@ -1065,10 +1065,10 @@
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E25" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F25" t="b">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F26" t="b">
         <v>0</v>
@@ -1105,10 +1105,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F27" t="b">
         <v>0</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F28" t="b">
         <v>0</v>
@@ -1145,10 +1145,10 @@
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E29" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F29" t="b">
         <v>0</v>
@@ -1165,10 +1165,10 @@
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F30" t="b">
         <v>0</v>
@@ -1185,10 +1185,10 @@
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F31" t="b">
         <v>0</v>
@@ -1205,10 +1205,10 @@
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E32" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F32" t="b">
         <v>0</v>
@@ -1225,10 +1225,10 @@
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F33" t="b">
         <v>0</v>
@@ -1245,10 +1245,10 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E34" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F34" t="b">
         <v>0</v>
@@ -1265,10 +1265,10 @@
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F35" t="b">
         <v>0</v>
@@ -1345,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F39" t="b">
         <v>0</v>
@@ -1365,10 +1365,10 @@
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F40" t="b">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E41" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F41" t="b">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E43" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F43" t="b">
         <v>0</v>
@@ -1445,10 +1445,10 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E44" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F44" t="b">
         <v>0</v>
@@ -1465,10 +1465,10 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E45" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F45" t="b">
         <v>0</v>
@@ -1485,10 +1485,10 @@
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F46" t="b">
         <v>0</v>
@@ -1585,10 +1585,10 @@
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E51" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F51" t="b">
         <v>0</v>
@@ -1605,10 +1605,10 @@
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F52" t="b">
         <v>0</v>
@@ -1645,10 +1645,10 @@
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F54" t="b">
         <v>0</v>
@@ -1665,10 +1665,10 @@
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E55" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F55" t="b">
         <v>0</v>
@@ -1745,10 +1745,10 @@
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E59" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F59" t="b">
         <v>0</v>
@@ -1765,10 +1765,10 @@
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E60" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F60" t="b">
         <v>0</v>
@@ -1785,10 +1785,10 @@
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E61" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F61" t="b">
         <v>0</v>
@@ -1825,10 +1825,10 @@
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E63" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F63" t="b">
         <v>0</v>
@@ -1905,10 +1905,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E67" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F67" t="b">
         <v>0</v>
@@ -1939,10 +1939,10 @@
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E69" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F69" t="b">
         <v>0</v>
@@ -1959,10 +1959,10 @@
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E70" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F70" t="b">
         <v>0</v>
@@ -1979,10 +1979,10 @@
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E71" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F71" t="b">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F72" t="b">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F73" t="b">
         <v>0</v>
@@ -2039,10 +2039,10 @@
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F74" t="b">
         <v>0</v>
@@ -2059,10 +2059,10 @@
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E75" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F75" t="b">
         <v>0</v>
@@ -2079,10 +2079,10 @@
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E76" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F76" t="b">
         <v>0</v>
@@ -2099,10 +2099,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E77" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F77" t="b">
         <v>0</v>
@@ -2119,10 +2119,10 @@
         <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E78" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F78" t="b">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         <v>1</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F79" t="b">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         <v>1</v>
       </c>
       <c r="D80" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E80" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F80" t="b">
         <v>0</v>
@@ -2179,10 +2179,10 @@
         <v>1</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F81" t="b">
         <v>0</v>
@@ -2199,10 +2199,10 @@
         <v>1</v>
       </c>
       <c r="D82" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E82" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F82" t="b">
         <v>0</v>
@@ -2219,10 +2219,10 @@
         <v>1</v>
       </c>
       <c r="D83" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E83" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F83" t="b">
         <v>0</v>
@@ -2239,10 +2239,10 @@
         <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E84" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F84" t="b">
         <v>0</v>
@@ -2253,16 +2253,16 @@
         <v>6</v>
       </c>
       <c r="B85" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E85" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F85" t="b">
         <v>0</v>
@@ -2273,16 +2273,16 @@
         <v>6</v>
       </c>
       <c r="B86" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F86" t="b">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>6</v>
       </c>
       <c r="B87" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E87" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F87" t="b">
         <v>0</v>
@@ -2313,16 +2313,16 @@
         <v>6</v>
       </c>
       <c r="B88" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E88" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F88" t="b">
         <v>0</v>
@@ -2333,16 +2333,16 @@
         <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C89">
         <v>1</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F89" t="b">
         <v>0</v>
@@ -2353,16 +2353,16 @@
         <v>6</v>
       </c>
       <c r="B90" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E90" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F90" t="b">
         <v>0</v>
@@ -2373,16 +2373,16 @@
         <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C91">
         <v>1</v>
       </c>
       <c r="D91" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F91" t="b">
         <v>0</v>
@@ -2393,16 +2393,16 @@
         <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E92" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F92" t="b">
         <v>0</v>
@@ -2413,16 +2413,16 @@
         <v>6</v>
       </c>
       <c r="B93" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C93">
         <v>1</v>
       </c>
       <c r="D93" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E93" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F93" t="b">
         <v>0</v>
@@ -2433,16 +2433,16 @@
         <v>6</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
       <c r="D94" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F94" t="b">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>6</v>
       </c>
       <c r="B95" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C95">
         <v>1</v>
       </c>
       <c r="D95" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F95" t="b">
         <v>0</v>
@@ -2473,16 +2473,16 @@
         <v>6</v>
       </c>
       <c r="B96" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
       <c r="D96" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E96" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F96" t="b">
         <v>0</v>
@@ -2493,16 +2493,16 @@
         <v>6</v>
       </c>
       <c r="B97" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C97">
         <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F97" t="b">
         <v>0</v>
@@ -2513,16 +2513,16 @@
         <v>6</v>
       </c>
       <c r="B98" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
       <c r="D98" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E98" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F98" t="b">
         <v>0</v>
@@ -2533,16 +2533,16 @@
         <v>6</v>
       </c>
       <c r="B99" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F99" t="b">
         <v>0</v>
@@ -2553,16 +2553,16 @@
         <v>6</v>
       </c>
       <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
         <v>32</v>
       </c>
-      <c r="C100">
-        <v>1</v>
-      </c>
-      <c r="D100" t="s">
-        <v>40</v>
-      </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F100" t="b">
         <v>0</v>
@@ -2599,10 +2599,10 @@
         <v>1</v>
       </c>
       <c r="D102" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E102" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F102" t="b">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>1</v>
       </c>
       <c r="D108" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F108" t="b">
         <v>0</v>
@@ -2759,10 +2759,10 @@
         <v>1</v>
       </c>
       <c r="D110" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E110" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F110" t="b">
         <v>0</v>
@@ -2779,10 +2779,10 @@
         <v>1</v>
       </c>
       <c r="D111" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E111" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F111" t="b">
         <v>0</v>
@@ -2799,10 +2799,10 @@
         <v>1</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E112" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F112" t="b">
         <v>0</v>
@@ -2819,10 +2819,10 @@
         <v>1</v>
       </c>
       <c r="D113" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E113" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F113" t="b">
         <v>0</v>
@@ -2859,10 +2859,10 @@
         <v>1</v>
       </c>
       <c r="D115" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E115" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F115" t="b">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>1</v>
       </c>
       <c r="D116" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E116" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F116" t="b">
         <v>0</v>
@@ -2899,10 +2899,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E117" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F117" t="b">
         <v>0</v>
@@ -2919,10 +2919,10 @@
         <v>1</v>
       </c>
       <c r="D118" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E118" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F118" t="b">
         <v>0</v>
@@ -2959,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="D120" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E120" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F120" t="b">
         <v>0</v>
@@ -3039,10 +3039,10 @@
         <v>1</v>
       </c>
       <c r="D124" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E124" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F124" t="b">
         <v>0</v>
@@ -3059,10 +3059,10 @@
         <v>1</v>
       </c>
       <c r="D125" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E125" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F125" t="b">
         <v>0</v>
@@ -3139,10 +3139,10 @@
         <v>1</v>
       </c>
       <c r="D129" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E129" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F129" t="b">
         <v>0</v>
@@ -3159,10 +3159,10 @@
         <v>1</v>
       </c>
       <c r="D130" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E130" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F130" t="b">
         <v>0</v>
@@ -3199,10 +3199,10 @@
         <v>1</v>
       </c>
       <c r="D132" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E132" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F132" t="b">
         <v>0</v>
@@ -3219,10 +3219,10 @@
         <v>1</v>
       </c>
       <c r="D133" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E133" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F133" t="b">
         <v>1</v>
@@ -3273,10 +3273,10 @@
         <v>1</v>
       </c>
       <c r="D136" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E136" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F136" t="b">
         <v>0</v>
@@ -3293,10 +3293,10 @@
         <v>1</v>
       </c>
       <c r="D137" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E137" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F137" t="b">
         <v>0</v>
@@ -3313,10 +3313,10 @@
         <v>1</v>
       </c>
       <c r="D138" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E138" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F138" t="b">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>1</v>
       </c>
       <c r="D144" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E144" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F144" t="b">
         <v>0</v>
@@ -3493,10 +3493,10 @@
         <v>1</v>
       </c>
       <c r="D147" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E147" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F147" t="b">
         <v>0</v>
@@ -3513,10 +3513,10 @@
         <v>1</v>
       </c>
       <c r="D148" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E148" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F148" t="b">
         <v>0</v>
@@ -3533,10 +3533,10 @@
         <v>1</v>
       </c>
       <c r="D149" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E149" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F149" t="b">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>1</v>
       </c>
       <c r="D150" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E150" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F150" t="b">
         <v>0</v>
@@ -3593,10 +3593,10 @@
         <v>1</v>
       </c>
       <c r="D152" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E152" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F152" t="b">
         <v>0</v>
@@ -3653,10 +3653,10 @@
         <v>1</v>
       </c>
       <c r="D155" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E155" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F155" t="b">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>1</v>
       </c>
       <c r="D156" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E156" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F156" t="b">
         <v>0</v>
@@ -3733,10 +3733,10 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E159" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F159" t="b">
         <v>0</v>
@@ -3753,10 +3753,10 @@
         <v>1</v>
       </c>
       <c r="D160" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E160" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F160" t="b">
         <v>0</v>
@@ -3773,10 +3773,10 @@
         <v>1</v>
       </c>
       <c r="D161" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E161" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F161" t="b">
         <v>0</v>
@@ -3853,10 +3853,10 @@
         <v>1</v>
       </c>
       <c r="D165" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E165" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F165" t="b">
         <v>0</v>
@@ -3873,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="D166" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E166" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F166" t="b">
         <v>0</v>
@@ -3887,16 +3887,16 @@
         <v>11</v>
       </c>
       <c r="B167" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C167">
         <v>1</v>
       </c>
       <c r="D167" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E167" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F167" t="b">
         <v>0</v>
@@ -3907,16 +3907,16 @@
         <v>11</v>
       </c>
       <c r="B168" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C168">
         <v>1</v>
       </c>
       <c r="D168" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E168" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F168" t="b">
         <v>0</v>
@@ -3927,16 +3927,16 @@
         <v>11</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C169">
         <v>1</v>
       </c>
       <c r="D169" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F169" t="b">
         <v>0</v>
@@ -3947,16 +3947,16 @@
         <v>11</v>
       </c>
       <c r="B170" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C170">
         <v>1</v>
       </c>
       <c r="D170" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E170" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F170" t="b">
         <v>0</v>
@@ -3967,16 +3967,16 @@
         <v>11</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C171">
         <v>1</v>
       </c>
       <c r="D171" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E171" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F171" t="b">
         <v>0</v>
@@ -3987,16 +3987,16 @@
         <v>11</v>
       </c>
       <c r="B172" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C172">
         <v>1</v>
       </c>
       <c r="D172" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E172" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F172" t="b">
         <v>0</v>
@@ -4007,16 +4007,16 @@
         <v>11</v>
       </c>
       <c r="B173" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C173">
         <v>1</v>
       </c>
       <c r="D173" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F173" t="b">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>11</v>
       </c>
       <c r="B174" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C174">
         <v>1</v>
       </c>
       <c r="D174" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E174" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F174" t="b">
         <v>0</v>
@@ -4047,16 +4047,16 @@
         <v>11</v>
       </c>
       <c r="B175" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C175">
         <v>1</v>
       </c>
       <c r="D175" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E175" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F175" t="b">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>11</v>
       </c>
       <c r="B176" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C176">
         <v>1</v>
       </c>
       <c r="D176" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E176" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F176" t="b">
         <v>0</v>
@@ -4087,16 +4087,16 @@
         <v>11</v>
       </c>
       <c r="B177" t="s">
+        <v>24</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
         <v>32</v>
       </c>
-      <c r="C177">
-        <v>1</v>
-      </c>
-      <c r="D177" t="s">
-        <v>40</v>
-      </c>
       <c r="E177" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F177" t="b">
         <v>0</v>
@@ -4107,16 +4107,16 @@
         <v>11</v>
       </c>
       <c r="B178" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C178">
         <v>1</v>
       </c>
       <c r="D178" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E178" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F178" t="b">
         <v>0</v>
@@ -4127,16 +4127,16 @@
         <v>11</v>
       </c>
       <c r="B179" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C179">
         <v>1</v>
       </c>
       <c r="D179" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E179" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F179" t="b">
         <v>0</v>
@@ -4147,16 +4147,16 @@
         <v>11</v>
       </c>
       <c r="B180" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C180">
         <v>1</v>
       </c>
       <c r="D180" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E180" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F180" t="b">
         <v>0</v>
@@ -4167,16 +4167,16 @@
         <v>11</v>
       </c>
       <c r="B181" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C181">
         <v>1</v>
       </c>
       <c r="D181" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E181" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F181" t="b">
         <v>1</v>
@@ -4187,16 +4187,16 @@
         <v>11</v>
       </c>
       <c r="B182" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E182" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F182" t="b">
         <v>0</v>
@@ -4207,16 +4207,16 @@
         <v>11</v>
       </c>
       <c r="B183" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C183">
         <v>1</v>
       </c>
       <c r="D183" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E183" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F183" t="b">
         <v>0</v>
@@ -4233,10 +4233,10 @@
         <v>1</v>
       </c>
       <c r="D184" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E184" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F184" t="b">
         <v>0</v>
@@ -4253,10 +4253,10 @@
         <v>1</v>
       </c>
       <c r="D185" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E185" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F185" t="b">
         <v>0</v>
@@ -4273,10 +4273,10 @@
         <v>1</v>
       </c>
       <c r="D186" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E186" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F186" t="b">
         <v>0</v>
@@ -4293,10 +4293,10 @@
         <v>1</v>
       </c>
       <c r="D187" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E187" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F187" t="b">
         <v>0</v>
@@ -4313,10 +4313,10 @@
         <v>1</v>
       </c>
       <c r="D188" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E188" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F188" t="b">
         <v>0</v>
@@ -4333,10 +4333,10 @@
         <v>1</v>
       </c>
       <c r="D189" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E189" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F189" t="b">
         <v>0</v>
@@ -4353,10 +4353,10 @@
         <v>1</v>
       </c>
       <c r="D190" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E190" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F190" t="b">
         <v>0</v>
@@ -4373,10 +4373,10 @@
         <v>1</v>
       </c>
       <c r="D191" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E191" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F191" t="b">
         <v>0</v>
@@ -4393,10 +4393,10 @@
         <v>1</v>
       </c>
       <c r="D192" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E192" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F192" t="b">
         <v>0</v>
@@ -4413,10 +4413,10 @@
         <v>1</v>
       </c>
       <c r="D193" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E193" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F193" t="b">
         <v>0</v>
@@ -4433,10 +4433,10 @@
         <v>1</v>
       </c>
       <c r="D194" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E194" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F194" t="b">
         <v>0</v>
@@ -4453,10 +4453,10 @@
         <v>1</v>
       </c>
       <c r="D195" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E195" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F195" t="b">
         <v>0</v>
@@ -4473,10 +4473,10 @@
         <v>1</v>
       </c>
       <c r="D196" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E196" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F196" t="b">
         <v>0</v>
@@ -4493,10 +4493,10 @@
         <v>1</v>
       </c>
       <c r="D197" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E197" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F197" t="b">
         <v>0</v>
@@ -4513,10 +4513,10 @@
         <v>1</v>
       </c>
       <c r="D198" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E198" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F198" t="b">
         <v>0</v>
@@ -4533,10 +4533,10 @@
         <v>1</v>
       </c>
       <c r="D199" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E199" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F199" t="b">
         <v>0</v>
@@ -4567,10 +4567,10 @@
         <v>1</v>
       </c>
       <c r="D201" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="E201" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F201" t="b">
         <v>0</v>
@@ -4627,10 +4627,10 @@
         <v>1</v>
       </c>
       <c r="D204" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="E204" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="F204" t="b">
         <v>0</v>
@@ -4647,10 +4647,10 @@
         <v>1</v>
       </c>
       <c r="D205" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E205" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="F205" t="b">
         <v>0</v>
@@ -4707,10 +4707,10 @@
         <v>1</v>
       </c>
       <c r="D208" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="E208" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="F208" t="b">
         <v>0</v>
@@ -4727,10 +4727,10 @@
         <v>1</v>
       </c>
       <c r="D209" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E209" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="F209" t="b">
         <v>0</v>
@@ -4807,10 +4807,10 @@
         <v>1</v>
       </c>
       <c r="D213" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="E213" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="F213" t="b">
         <v>0</v>
@@ -4827,10 +4827,10 @@
         <v>1</v>
       </c>
       <c r="D214" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E214" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F214" t="b">
         <v>0</v>
@@ -4867,10 +4867,10 @@
         <v>1</v>
       </c>
       <c r="D216" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E216" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="F216" t="b">
         <v>0</v>
@@ -4887,10 +4887,10 @@
         <v>1</v>
       </c>
       <c r="D217" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="E217" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="F217" t="b">
         <v>0</v>
@@ -4907,10 +4907,10 @@
         <v>1</v>
       </c>
       <c r="D218" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="E218" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F218" t="b">
         <v>0</v>
@@ -4947,10 +4947,10 @@
         <v>1</v>
       </c>
       <c r="D220" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="E220" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="F220" t="b">
         <v>0</v>
@@ -5087,10 +5087,10 @@
         <v>1</v>
       </c>
       <c r="D227" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="E227" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="F227" t="b">
         <v>0</v>
@@ -5107,10 +5107,10 @@
         <v>1</v>
       </c>
       <c r="D228" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E228" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="F228" t="b">
         <v>0</v>
@@ -5127,10 +5127,10 @@
         <v>1</v>
       </c>
       <c r="D229" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="E229" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="F229" t="b">
         <v>0</v>
@@ -5167,10 +5167,10 @@
         <v>1</v>
       </c>
       <c r="D231" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E231" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="F231" t="b">
         <v>0</v>
@@ -5207,10 +5207,10 @@
         <v>1</v>
       </c>
       <c r="D233" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="E233" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="F233" t="b">
         <v>0</v>
@@ -5227,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="D234" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="E234" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F234" t="b">
         <v>0</v>
@@ -5247,10 +5247,10 @@
         <v>1</v>
       </c>
       <c r="D235" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="E235" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F235" t="b">
         <v>0</v>
@@ -5267,10 +5267,10 @@
         <v>1</v>
       </c>
       <c r="D236" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="E236" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="F236" t="b">
         <v>0</v>
@@ -5287,10 +5287,10 @@
         <v>1</v>
       </c>
       <c r="D237" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E237" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F237" t="b">
         <v>0</v>
@@ -5307,10 +5307,10 @@
         <v>1</v>
       </c>
       <c r="D238" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="E238" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="F238" t="b">
         <v>0</v>
@@ -5327,10 +5327,10 @@
         <v>1</v>
       </c>
       <c r="D239" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E239" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="F239" t="b">
         <v>0</v>
@@ -5347,10 +5347,10 @@
         <v>1</v>
       </c>
       <c r="D240" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E240" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="F240" t="b">
         <v>0</v>
@@ -5367,10 +5367,10 @@
         <v>1</v>
       </c>
       <c r="D241" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="E241" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F241" t="b">
         <v>0</v>
@@ -5387,10 +5387,10 @@
         <v>1</v>
       </c>
       <c r="D242" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E242" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="F242" t="b">
         <v>0</v>
@@ -5407,10 +5407,10 @@
         <v>1</v>
       </c>
       <c r="D243" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E243" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F243" t="b">
         <v>0</v>
@@ -5427,10 +5427,10 @@
         <v>1</v>
       </c>
       <c r="D244" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="E244" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F244" t="b">
         <v>0</v>
@@ -5447,10 +5447,10 @@
         <v>1</v>
       </c>
       <c r="D245" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E245" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F245" t="b">
         <v>0</v>
@@ -5467,10 +5467,10 @@
         <v>1</v>
       </c>
       <c r="D246" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E246" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F246" t="b">
         <v>0</v>
@@ -5487,10 +5487,10 @@
         <v>1</v>
       </c>
       <c r="D247" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="E247" t="s">
-        <v>26</v>
+        <v>71</v>
       </c>
       <c r="F247" t="b">
         <v>0</v>
@@ -5507,10 +5507,10 @@
         <v>1</v>
       </c>
       <c r="D248" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E248" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="F248" t="b">
         <v>0</v>
@@ -5527,10 +5527,10 @@
         <v>1</v>
       </c>
       <c r="D249" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="E249" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="F249" t="b">
         <v>0</v>
@@ -5541,16 +5541,16 @@
         <v>16</v>
       </c>
       <c r="B250" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="E250" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="F250" t="b">
         <v>0</v>
@@ -5561,16 +5561,16 @@
         <v>16</v>
       </c>
       <c r="B251" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C251">
         <v>1</v>
       </c>
       <c r="D251" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="E251" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F251" t="b">
         <v>0</v>
@@ -5581,16 +5581,16 @@
         <v>16</v>
       </c>
       <c r="B252" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="E252" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F252" t="b">
         <v>0</v>
@@ -5601,16 +5601,16 @@
         <v>16</v>
       </c>
       <c r="B253" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C253">
         <v>1</v>
       </c>
       <c r="D253" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="E253" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="F253" t="b">
         <v>0</v>
@@ -5621,16 +5621,16 @@
         <v>16</v>
       </c>
       <c r="B254" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C254">
         <v>1</v>
       </c>
       <c r="D254" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E254" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="F254" t="b">
         <v>0</v>
@@ -5641,16 +5641,16 @@
         <v>16</v>
       </c>
       <c r="B255" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C255">
         <v>1</v>
       </c>
       <c r="D255" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E255" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F255" t="b">
         <v>0</v>
@@ -5661,16 +5661,16 @@
         <v>16</v>
       </c>
       <c r="B256" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C256">
         <v>1</v>
       </c>
       <c r="D256" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="E256" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F256" t="b">
         <v>0</v>
@@ -5681,16 +5681,16 @@
         <v>16</v>
       </c>
       <c r="B257" t="s">
+        <v>24</v>
+      </c>
+      <c r="C257">
+        <v>1</v>
+      </c>
+      <c r="D257" t="s">
         <v>32</v>
       </c>
-      <c r="C257">
-        <v>1</v>
-      </c>
-      <c r="D257" t="s">
-        <v>40</v>
-      </c>
       <c r="E257" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="F257" t="b">
         <v>0</v>
@@ -5701,16 +5701,16 @@
         <v>16</v>
       </c>
       <c r="B258" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C258">
         <v>1</v>
       </c>
       <c r="D258" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E258" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F258" t="b">
         <v>0</v>
@@ -5721,16 +5721,16 @@
         <v>16</v>
       </c>
       <c r="B259" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C259">
         <v>1</v>
       </c>
       <c r="D259" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="E259" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F259" t="b">
         <v>0</v>
@@ -5741,16 +5741,16 @@
         <v>16</v>
       </c>
       <c r="B260" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C260">
         <v>1</v>
       </c>
       <c r="D260" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E260" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F260" t="b">
         <v>0</v>
@@ -5761,16 +5761,16 @@
         <v>16</v>
       </c>
       <c r="B261" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C261">
         <v>1</v>
       </c>
       <c r="D261" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E261" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F261" t="b">
         <v>0</v>
@@ -5781,16 +5781,16 @@
         <v>16</v>
       </c>
       <c r="B262" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C262">
         <v>1</v>
       </c>
       <c r="D262" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="E262" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F262" t="b">
         <v>0</v>
@@ -5801,16 +5801,16 @@
         <v>16</v>
       </c>
       <c r="B263" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C263">
         <v>1</v>
       </c>
       <c r="D263" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E263" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F263" t="b">
         <v>0</v>
@@ -5821,16 +5821,16 @@
         <v>16</v>
       </c>
       <c r="B264" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C264">
         <v>1</v>
       </c>
       <c r="D264" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="E264" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F264" t="b">
         <v>0</v>
@@ -5841,16 +5841,16 @@
         <v>16</v>
       </c>
       <c r="B265" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C265">
         <v>1</v>
       </c>
       <c r="D265" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E265" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="F265" t="b">
         <v>0</v>

--- a/Experiment/Orders_LOC/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_LOC/PAR01_RUN01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_LOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A1C35A-2EAC-4C11-8469-5CA696BA5FFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305DC88B-4C2C-457A-BB52-CED1EF902588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -608,7 +608,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>

--- a/Experiment/Orders_LOC/PAR01_RUN01.xlsx
+++ b/Experiment/Orders_LOC/PAR01_RUN01.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VisionLab\AppData\Local\GitHubDesktop\app-2.9.0\fMRI_3DFaces_MD_2021\Experiment\Orders_LOC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mdonnel9\Documents\GitHub\fMRI_3DFaces_MD_2021\Experiment\Orders_LOC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{305DC88B-4C2C-457A-BB52-CED1EF902588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -261,7 +260,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -567,20 +566,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
-    <col min="4" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -608,13 +607,13 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -634,7 +633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -654,7 +653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -674,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -694,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -714,7 +713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -734,7 +733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -754,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -774,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -794,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -814,7 +813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -834,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -854,7 +853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -874,7 +873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -894,7 +893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -914,7 +913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -934,7 +933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -954,7 +953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -974,7 +973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -994,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -1014,7 +1013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1034,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -1054,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -1074,7 +1073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -1094,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -1134,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1154,7 +1153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1194,7 +1193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -1214,7 +1213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -1234,7 +1233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -1254,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>3</v>
       </c>
@@ -1314,7 +1313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>3</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1354,7 +1353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1374,7 +1373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3</v>
       </c>
@@ -1394,7 +1393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>3</v>
       </c>
@@ -1414,7 +1413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>3</v>
       </c>
@@ -1434,7 +1433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1454,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1494,7 +1493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1514,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>3</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>3</v>
       </c>
@@ -1594,7 +1593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1614,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1634,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1654,7 +1653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1694,7 +1693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1714,7 +1713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1734,7 +1733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1754,7 +1753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1774,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1794,7 +1793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1814,7 +1813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -1834,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -1854,7 +1853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -1874,7 +1873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -1894,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -1914,7 +1913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>0</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>5</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>5</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>5</v>
       </c>
@@ -1988,7 +1987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>5</v>
       </c>
@@ -2008,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>5</v>
       </c>
@@ -2028,7 +2027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>5</v>
       </c>
@@ -2048,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>5</v>
       </c>
@@ -2068,7 +2067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>5</v>
       </c>
@@ -2088,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>5</v>
       </c>
@@ -2108,7 +2107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>5</v>
       </c>
@@ -2128,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>5</v>
       </c>
@@ -2148,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>5</v>
       </c>
@@ -2168,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>5</v>
       </c>
@@ -2188,7 +2187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>5</v>
       </c>
@@ -2208,7 +2207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -2228,7 +2227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5</v>
       </c>
@@ -2248,7 +2247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>6</v>
       </c>
@@ -2288,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -2308,7 +2307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>6</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>6</v>
       </c>
@@ -2348,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>6</v>
       </c>
@@ -2368,7 +2367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>6</v>
       </c>
@@ -2388,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>6</v>
       </c>
@@ -2408,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>6</v>
       </c>
@@ -2428,7 +2427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>6</v>
       </c>
@@ -2448,7 +2447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>6</v>
       </c>
@@ -2468,7 +2467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>6</v>
       </c>
@@ -2488,7 +2487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>6</v>
       </c>
@@ -2508,7 +2507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>6</v>
       </c>
@@ -2528,7 +2527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>6</v>
       </c>
@@ -2548,7 +2547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>6</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>7</v>
       </c>
@@ -2588,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>7</v>
       </c>
@@ -2608,7 +2607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>7</v>
       </c>
@@ -2628,7 +2627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>7</v>
       </c>
@@ -2648,7 +2647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>7</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>7</v>
       </c>
@@ -2688,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>7</v>
       </c>
@@ -2708,7 +2707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>7</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>7</v>
       </c>
@@ -2748,7 +2747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>7</v>
       </c>
@@ -2768,7 +2767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>7</v>
       </c>
@@ -2788,7 +2787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>7</v>
       </c>
@@ -2808,7 +2807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>7</v>
       </c>
@@ -2828,7 +2827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>7</v>
       </c>
@@ -2848,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>7</v>
       </c>
@@ -2868,7 +2867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>7</v>
       </c>
@@ -2888,7 +2887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>8</v>
       </c>
@@ -2908,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>8</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>8</v>
       </c>
@@ -2948,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>8</v>
       </c>
@@ -2968,7 +2967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>8</v>
       </c>
@@ -2988,7 +2987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>8</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>8</v>
       </c>
@@ -3028,7 +3027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>8</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>8</v>
       </c>
@@ -3068,7 +3067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>8</v>
       </c>
@@ -3088,7 +3087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>8</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8</v>
       </c>
@@ -3128,7 +3127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>8</v>
       </c>
@@ -3148,7 +3147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8</v>
       </c>
@@ -3168,7 +3167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -3188,7 +3187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>8</v>
       </c>
@@ -3208,7 +3207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8</v>
       </c>
@@ -3228,7 +3227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>0</v>
       </c>
@@ -3242,7 +3241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>9</v>
       </c>
@@ -3262,7 +3261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>9</v>
       </c>
@@ -3282,7 +3281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9</v>
       </c>
@@ -3302,7 +3301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>9</v>
       </c>
@@ -3322,7 +3321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>9</v>
       </c>
@@ -3342,7 +3341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>9</v>
       </c>
@@ -3362,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>9</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>9</v>
       </c>
@@ -3402,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>9</v>
       </c>
@@ -3422,7 +3421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>9</v>
       </c>
@@ -3442,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>9</v>
       </c>
@@ -3462,7 +3461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>9</v>
       </c>
@@ -3482,7 +3481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>9</v>
       </c>
@@ -3502,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>9</v>
       </c>
@@ -3522,7 +3521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>9</v>
       </c>
@@ -3542,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>9</v>
       </c>
@@ -3562,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>10</v>
       </c>
@@ -3582,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>10</v>
       </c>
@@ -3602,7 +3601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>10</v>
       </c>
@@ -3622,7 +3621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>10</v>
       </c>
@@ -3642,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>10</v>
       </c>
@@ -3662,7 +3661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10</v>
       </c>
@@ -3682,7 +3681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>10</v>
       </c>
@@ -3702,7 +3701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>10</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>10</v>
       </c>
@@ -3742,7 +3741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>10</v>
       </c>
@@ -3762,7 +3761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>10</v>
       </c>
@@ -3782,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>10</v>
       </c>
@@ -3802,7 +3801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>10</v>
       </c>
@@ -3822,7 +3821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>10</v>
       </c>
@@ -3842,7 +3841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>10</v>
       </c>
@@ -3862,7 +3861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>10</v>
       </c>
@@ -3882,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>11</v>
       </c>
@@ -3902,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>11</v>
       </c>
@@ -3922,7 +3921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>11</v>
       </c>
@@ -3942,7 +3941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>11</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>11</v>
       </c>
@@ -3982,7 +3981,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>11</v>
       </c>
@@ -4002,7 +4001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>11</v>
       </c>
@@ -4022,7 +4021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>11</v>
       </c>
@@ -4042,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>11</v>
       </c>
@@ -4062,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>11</v>
       </c>
@@ -4082,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>11</v>
       </c>
@@ -4102,7 +4101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>11</v>
       </c>
@@ -4122,7 +4121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>11</v>
       </c>
@@ -4142,7 +4141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>11</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>11</v>
       </c>
@@ -4182,7 +4181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>11</v>
       </c>
@@ -4202,7 +4201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>11</v>
       </c>
@@ -4222,7 +4221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>12</v>
       </c>
@@ -4242,7 +4241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>12</v>
       </c>
@@ -4262,7 +4261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>12</v>
       </c>
@@ -4282,7 +4281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>12</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>12</v>
       </c>
@@ -4322,7 +4321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>12</v>
       </c>
@@ -4342,7 +4341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>12</v>
       </c>
@@ -4362,7 +4361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>12</v>
       </c>
@@ -4382,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>12</v>
       </c>
@@ -4402,7 +4401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>12</v>
       </c>
@@ -4422,7 +4421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>12</v>
       </c>
@@ -4442,7 +4441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>12</v>
       </c>
@@ -4462,7 +4461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>12</v>
       </c>
@@ -4482,7 +4481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>12</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>12</v>
       </c>
@@ -4522,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>12</v>
       </c>
@@ -4542,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>0</v>
       </c>
@@ -4556,7 +4555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>13</v>
       </c>
@@ -4576,7 +4575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>13</v>
       </c>
@@ -4596,7 +4595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>13</v>
       </c>
@@ -4616,7 +4615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>13</v>
       </c>
@@ -4636,7 +4635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>13</v>
       </c>
@@ -4656,7 +4655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>13</v>
       </c>
@@ -4676,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>13</v>
       </c>
@@ -4696,7 +4695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>13</v>
       </c>
@@ -4716,7 +4715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>13</v>
       </c>
@@ -4736,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>13</v>
       </c>
@@ -4756,7 +4755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>13</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>13</v>
       </c>
@@ -4796,7 +4795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>13</v>
       </c>
@@ -4816,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>13</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>13</v>
       </c>
@@ -4856,7 +4855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>13</v>
       </c>
@@ -4876,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>14</v>
       </c>
@@ -4896,7 +4895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>14</v>
       </c>
@@ -4916,7 +4915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>14</v>
       </c>
@@ -4936,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>14</v>
       </c>
@@ -4956,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>14</v>
       </c>
@@ -4976,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>14</v>
       </c>
@@ -4996,7 +4995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>14</v>
       </c>
@@ -5016,7 +5015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>14</v>
       </c>
@@ -5036,7 +5035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>14</v>
       </c>
@@ -5056,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>14</v>
       </c>
@@ -5076,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>14</v>
       </c>
@@ -5096,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>14</v>
       </c>
@@ -5116,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>14</v>
       </c>
@@ -5136,7 +5135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>14</v>
       </c>
@@ -5156,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>14</v>
       </c>
@@ -5176,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>14</v>
       </c>
@@ -5196,7 +5195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>14</v>
       </c>
@@ -5216,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>15</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>15</v>
       </c>
@@ -5256,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>15</v>
       </c>
@@ -5276,7 +5275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>15</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>15</v>
       </c>
@@ -5316,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>15</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>15</v>
       </c>
@@ -5356,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>15</v>
       </c>
@@ -5376,7 +5375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>15</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>15</v>
       </c>
@@ -5416,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>15</v>
       </c>
@@ -5436,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>15</v>
       </c>
@@ -5456,7 +5455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>15</v>
       </c>
@@ -5476,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>15</v>
       </c>
@@ -5496,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>15</v>
       </c>
@@ -5516,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>15</v>
       </c>
@@ -5536,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>16</v>
       </c>
@@ -5556,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>16</v>
       </c>
@@ -5576,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>16</v>
       </c>
@@ -5596,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>16</v>
       </c>
@@ -5616,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>16</v>
       </c>
@@ -5636,7 +5635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>16</v>
       </c>
@@ -5656,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>16</v>
       </c>
@@ -5676,7 +5675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>16</v>
       </c>
@@ -5696,7 +5695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>16</v>
       </c>
@@ -5716,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>16</v>
       </c>
@@ -5736,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>16</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>16</v>
       </c>
@@ -5776,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>16</v>
       </c>
@@ -5796,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>16</v>
       </c>
@@ -5816,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>16</v>
       </c>
@@ -5836,7 +5835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>16</v>
       </c>
@@ -5856,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>0</v>
       </c>
